--- a/databases/aeronaves_civis_arbitrado.xlsx
+++ b/databases/aeronaves_civis_arbitrado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edftecnologia-my.sharepoint.com/personal/eden_denis_ferreira_da_silva_edftecnologia_onmicrosoft_com/Documents/EDF_TECNOLOGIA/APLICATIVOS/python/jn/modelos_p/k_means/banco_de_dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\UFABC\QUADRIMESTRES\17º QUADRIMESTRE\Trabalho de Graduação em Engenharia III\AplicacaoDeBIGDataEmAerotaxonomiaDeAeronaves\Subrotinas\k_means\banco_de_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{004A33A2-F7B6-4A0E-AC91-DB927617ECB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDBA8A2D-0801-4F18-8BA6-E1BCA5F039C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004A33A2-F7B6-4A0E-AC91-DB927617ECB9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7980" windowHeight="4060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AD$41</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$A:$A,data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,12 +31,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -334,21 +328,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11470,40 +11465,42 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:T1"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="26.90625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11595,7 +11592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -11716,7 +11713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -11837,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -11958,7 +11955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -12079,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -12200,7 +12197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -12321,7 +12318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>50</v>
       </c>
@@ -12442,7 +12439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -12563,7 +12560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -12684,7 +12681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -12805,7 +12802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -12926,7 +12923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
@@ -13047,7 +13044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
@@ -13168,7 +13165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -13289,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -13410,7 +13407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -13531,7 +13528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -13652,7 +13649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
@@ -13773,7 +13770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
@@ -13894,7 +13891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
@@ -14015,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -14136,7 +14133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
@@ -14257,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -14378,7 +14375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
@@ -14499,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>53</v>
       </c>
@@ -14620,7 +14617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -14741,7 +14738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
@@ -14862,7 +14859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
@@ -14983,7 +14980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>69</v>
       </c>
@@ -15104,7 +15101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
@@ -15225,7 +15222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
@@ -15346,7 +15343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
@@ -15467,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>54</v>
       </c>
@@ -15588,7 +15585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -15709,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
@@ -15830,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
@@ -15951,7 +15948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>17</v>
       </c>
@@ -16072,7 +16069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>2</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
@@ -16314,7 +16311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
@@ -16437,11 +16434,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AD41" xr:uid="{5271980B-B7D9-47E2-93E0-14AF2877DD7E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD41">
+    <sortState ref="A2:AD41">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD41">
+  <sortState ref="A2:AD41">
     <sortCondition ref="A2"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
